--- a/publipostage/02k9jrs03/liste_essais_cliniques_identifies_02k9jrs03.xlsx
+++ b/publipostage/02k9jrs03/liste_essais_cliniques_identifies_02k9jrs03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT03192332</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Solitaire™ With the Intention For Thrombectomy Plus Intravenous t-PA Versus DIRECT Solitaire™ Stent-retriever Thrombectomy in Acute Anterior Circulation Stroke</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>SWIFT DIRECT</t>
         </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT03459092</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>A Pragmatic, Randomized, Non-inferiority Trial Comparing the Effectiveness of Botulinum Toxin-based Treatment With Conventional Strabismus Surgery in Acquired Esotropia.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BISS</t>
         </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02258919</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Swiss Trial of Decompressive Craniectomy Versus Best Medical Treatment of Spontaneous Supratentorial Intracerebral Hemorrhage (SWITCH): a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>SWITCH</t>
         </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/02k9jrs03/liste_essais_cliniques_identifies_02k9jrs03.xlsx
+++ b/publipostage/02k9jrs03/liste_essais_cliniques_identifies_02k9jrs03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -609,6 +624,11 @@
       </c>
       <c r="J4" t="b">
         <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
   </sheetData>
